--- a/working/fox/eggdisp.cowpeaC.xlsx
+++ b/working/fox/eggdisp.cowpeaC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/fox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0A3B0A-BDE6-E844-8C8D-A140E0E7B0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE5D7F7-9AA0-2949-AF0A-FEA98338A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="2780" windowWidth="22820" windowHeight="13780" xr2:uid="{A8A8ECE5-8228-D04B-8B22-099FFC894786}"/>
+    <workbookView xWindow="5980" yWindow="2780" windowWidth="22820" windowHeight="13780" xr2:uid="{A8A8ECE5-8228-D04B-8B22-099FFC894786}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>cross</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,6 +479,12 @@
       <c r="C2">
         <v>1.5873015873015876E-2</v>
       </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -487,6 +496,12 @@
       <c r="C3">
         <v>2.9206349206349212E-2</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -498,6 +513,12 @@
       <c r="C4">
         <v>2.9206349206349212E-2</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -509,6 +530,12 @@
       <c r="C5">
         <v>3.1746031746031751E-2</v>
       </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -520,6 +547,12 @@
       <c r="C6">
         <v>1.5873015873015876E-2</v>
       </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -531,6 +564,12 @@
       <c r="C7">
         <v>3.8095238095238092E-2</v>
       </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -542,6 +581,12 @@
       <c r="C8">
         <v>5.0793650793650807E-2</v>
       </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -553,6 +598,12 @@
       <c r="C9">
         <v>5.0793650793650807E-2</v>
       </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -563,6 +614,12 @@
       </c>
       <c r="C10">
         <v>3.3650793650793653E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
